--- a/students/ashbergg/258 WATERMARK.xlsx
+++ b/students/ashbergg/258 WATERMARK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="1580" yWindow="60" windowWidth="25360" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,49 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>hlegalname</t>
-  </si>
-  <si>
-    <t>hdname</t>
-  </si>
-  <si>
-    <t>hgender</t>
-  </si>
-  <si>
-    <t>hage</t>
-  </si>
-  <si>
-    <t>hdage</t>
-  </si>
-  <si>
-    <t>hactions</t>
-  </si>
-  <si>
-    <t>hcases</t>
-  </si>
-  <si>
-    <t>hdate</t>
-  </si>
-  <si>
-    <t>hmostlike</t>
-  </si>
-  <si>
-    <t>hordershould</t>
-  </si>
-  <si>
-    <t>hpayment</t>
-  </si>
-  <si>
-    <t>hyoung</t>
-  </si>
-  <si>
-    <t>hrelationship</t>
-  </si>
-  <si>
-    <t>bibk</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>bkbk</t>
   </si>
@@ -79,16 +37,116 @@
   </si>
   <si>
     <t>bibi</t>
+  </si>
+  <si>
+    <t>plaintiff</t>
+  </si>
+  <si>
+    <t>defendant</t>
+  </si>
+  <si>
+    <t>over18</t>
+  </si>
+  <si>
+    <t>prioractions</t>
+  </si>
+  <si>
+    <t>docketnumber</t>
+  </si>
+  <si>
+    <t>commit1</t>
+  </si>
+  <si>
+    <t>explaindocket</t>
+  </si>
+  <si>
+    <t>commit2</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>date2</t>
+  </si>
+  <si>
+    <t>statutes</t>
+  </si>
+  <si>
+    <t>date3</t>
+  </si>
+  <si>
+    <t>age17</t>
+  </si>
+  <si>
+    <t>under16</t>
+  </si>
+  <si>
+    <t>someonefile</t>
+  </si>
+  <si>
+    <t>relationships</t>
+  </si>
+  <si>
+    <t>gsdoub</t>
+  </si>
+  <si>
+    <t>dsgvfkj</t>
+  </si>
+  <si>
+    <t>sfhjd</t>
+  </si>
+  <si>
+    <t>dsgiu</t>
+  </si>
+  <si>
+    <t>dshuighbfk</t>
+  </si>
+  <si>
+    <t>sdfhgui</t>
+  </si>
+  <si>
+    <t>fhf</t>
+  </si>
+  <si>
+    <t>gfd</t>
+  </si>
+  <si>
+    <t>hdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,13 +169,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,98 +513,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
